--- a/biology/Microbiologie/Infusoire/Infusoire.xlsx
+++ b/biology/Microbiologie/Infusoire/Infusoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les infusoires sont des organismes microscopiques vivant en suspension dans l'eau douce ou saumâtre[1].
-Le nom a pour origine le fait que ces animaux se nourrissent d'infusions végétales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les infusoires sont des organismes microscopiques vivant en suspension dans l'eau douce ou saumâtre.
+Le nom a pour origine le fait que ces animaux se nourrissent d'infusions végétales.
 Il peut s'agir d'organismes unicellulaires (Ciliés et Euglénoïdes, principalement) ou de minuscules invertébrés. Certains auteurs comme Otto Bütschli font du terme infusoire un synonyme de Ciliophora (les Ciliés).
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1765 Horace-Bénédict de Saussure parvient à observer et décrire la division des infusoires[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1765 Horace-Bénédict de Saussure parvient à observer et décrire la division des infusoires.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Division</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si un infusoire dans un liquide (bouillon de foin), trouve une alimentation convenable, peu à peu il augmente ses dimensions, et, lorsqu'il a acquis une certaine taille, se divise en deux infusoires[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si un infusoire dans un liquide (bouillon de foin), trouve une alimentation convenable, peu à peu il augmente ses dimensions, et, lorsqu'il a acquis une certaine taille, se divise en deux infusoires.
 </t>
         </is>
       </c>
